--- a/ControladorGRD/Resources/documento de exemplo cadastro multiplo.xlsx
+++ b/ControladorGRD/Resources/documento de exemplo cadastro multiplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linco\Documentos\Visual Studio 2019\Repositorio\ControladorGRD\ControladorGRD\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95805BE1-9AD9-40CE-93F2-D50182C598B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78916B-2E64-4537-BA54-63D81DB59375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="405">
   <si>
     <t>numero</t>
   </si>
@@ -76,6 +76,1170 @@
   </si>
   <si>
     <t>0527.03.001</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0001</t>
+  </si>
+  <si>
+    <t>LEGENDA 005</t>
+  </si>
+  <si>
+    <t>LEGENDA 001</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0002</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0003</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0004</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0005</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0006</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0007</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0008</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0009</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0010</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0011</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0012</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0013</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0014</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0015</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0016</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0017</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0018</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0019</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0020</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0021</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0022</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0023</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0024</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0025</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0026</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0027</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0028</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0029</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0030</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0031</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0032</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0033</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0034</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0035</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0036</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0037</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0038</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0039</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0040</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0041</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0042</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0043</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0044</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0045</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0046</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0047</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0048</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0049</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0050</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0051</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0052</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0053</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0054</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0055</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0056</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0057</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0058</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0059</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0060</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0061</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0062</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0063</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0064</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0065</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0066</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0067</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0068</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0069</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0070</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0071</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0072</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0073</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0074</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0075</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0076</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0077</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0078</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0079</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0080</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0081</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0082</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0083</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0084</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0085</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0086</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0087</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0088</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0089</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0090</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0091</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0092</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0093</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0094</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0095</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0096</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0097</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0098</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0099</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0100</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0101</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0102</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0103</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0104</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0105</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0106</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0107</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0108</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0109</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0110</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0111</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0112</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0113</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0114</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0115</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0116</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0117</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0118</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0119</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0120</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0121</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0122</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0123</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0124</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0125</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0126</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0127</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0128</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0129</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0130</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0131</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0132</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0133</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0134</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0135</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0136</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0137</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0138</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0139</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0140</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0141</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0142</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0143</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0144</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0145</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0146</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0147</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0148</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0149</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0150</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0151</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0152</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0153</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0154</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0155</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0156</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0157</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0158</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0159</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0160</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0161</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0162</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0163</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0164</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0165</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0166</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0167</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0168</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0169</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0170</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0171</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0172</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0173</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0174</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0175</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0176</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0177</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0178</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0179</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0180</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0181</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0182</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0183</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0184</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0185</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0186</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0187</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0188</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0189</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0190</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0191</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0192</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0193</t>
+  </si>
+  <si>
+    <t>IME-TESTE-0194</t>
+  </si>
+  <si>
+    <t>LEGENDA 002</t>
+  </si>
+  <si>
+    <t>LEGENDA 003</t>
+  </si>
+  <si>
+    <t>LEGENDA 004</t>
+  </si>
+  <si>
+    <t>LEGENDA 006</t>
+  </si>
+  <si>
+    <t>LEGENDA 007</t>
+  </si>
+  <si>
+    <t>LEGENDA 008</t>
+  </si>
+  <si>
+    <t>LEGENDA 009</t>
+  </si>
+  <si>
+    <t>LEGENDA 010</t>
+  </si>
+  <si>
+    <t>LEGENDA 011</t>
+  </si>
+  <si>
+    <t>LEGENDA 012</t>
+  </si>
+  <si>
+    <t>LEGENDA 013</t>
+  </si>
+  <si>
+    <t>LEGENDA 014</t>
+  </si>
+  <si>
+    <t>LEGENDA 015</t>
+  </si>
+  <si>
+    <t>LEGENDA 016</t>
+  </si>
+  <si>
+    <t>LEGENDA 017</t>
+  </si>
+  <si>
+    <t>LEGENDA 018</t>
+  </si>
+  <si>
+    <t>LEGENDA 019</t>
+  </si>
+  <si>
+    <t>LEGENDA 020</t>
+  </si>
+  <si>
+    <t>LEGENDA 021</t>
+  </si>
+  <si>
+    <t>LEGENDA 022</t>
+  </si>
+  <si>
+    <t>LEGENDA 023</t>
+  </si>
+  <si>
+    <t>LEGENDA 024</t>
+  </si>
+  <si>
+    <t>LEGENDA 025</t>
+  </si>
+  <si>
+    <t>LEGENDA 026</t>
+  </si>
+  <si>
+    <t>LEGENDA 027</t>
+  </si>
+  <si>
+    <t>LEGENDA 028</t>
+  </si>
+  <si>
+    <t>LEGENDA 029</t>
+  </si>
+  <si>
+    <t>LEGENDA 030</t>
+  </si>
+  <si>
+    <t>LEGENDA 031</t>
+  </si>
+  <si>
+    <t>LEGENDA 032</t>
+  </si>
+  <si>
+    <t>LEGENDA 033</t>
+  </si>
+  <si>
+    <t>LEGENDA 034</t>
+  </si>
+  <si>
+    <t>LEGENDA 035</t>
+  </si>
+  <si>
+    <t>LEGENDA 036</t>
+  </si>
+  <si>
+    <t>LEGENDA 037</t>
+  </si>
+  <si>
+    <t>LEGENDA 038</t>
+  </si>
+  <si>
+    <t>LEGENDA 039</t>
+  </si>
+  <si>
+    <t>LEGENDA 040</t>
+  </si>
+  <si>
+    <t>LEGENDA 041</t>
+  </si>
+  <si>
+    <t>LEGENDA 042</t>
+  </si>
+  <si>
+    <t>LEGENDA 043</t>
+  </si>
+  <si>
+    <t>LEGENDA 044</t>
+  </si>
+  <si>
+    <t>LEGENDA 045</t>
+  </si>
+  <si>
+    <t>LEGENDA 046</t>
+  </si>
+  <si>
+    <t>LEGENDA 047</t>
+  </si>
+  <si>
+    <t>LEGENDA 048</t>
+  </si>
+  <si>
+    <t>LEGENDA 049</t>
+  </si>
+  <si>
+    <t>LEGENDA 050</t>
+  </si>
+  <si>
+    <t>LEGENDA 051</t>
+  </si>
+  <si>
+    <t>LEGENDA 052</t>
+  </si>
+  <si>
+    <t>LEGENDA 053</t>
+  </si>
+  <si>
+    <t>LEGENDA 054</t>
+  </si>
+  <si>
+    <t>LEGENDA 055</t>
+  </si>
+  <si>
+    <t>LEGENDA 056</t>
+  </si>
+  <si>
+    <t>LEGENDA 057</t>
+  </si>
+  <si>
+    <t>LEGENDA 058</t>
+  </si>
+  <si>
+    <t>LEGENDA 059</t>
+  </si>
+  <si>
+    <t>LEGENDA 060</t>
+  </si>
+  <si>
+    <t>LEGENDA 061</t>
+  </si>
+  <si>
+    <t>LEGENDA 062</t>
+  </si>
+  <si>
+    <t>LEGENDA 063</t>
+  </si>
+  <si>
+    <t>LEGENDA 064</t>
+  </si>
+  <si>
+    <t>LEGENDA 065</t>
+  </si>
+  <si>
+    <t>LEGENDA 066</t>
+  </si>
+  <si>
+    <t>LEGENDA 067</t>
+  </si>
+  <si>
+    <t>LEGENDA 068</t>
+  </si>
+  <si>
+    <t>LEGENDA 069</t>
+  </si>
+  <si>
+    <t>LEGENDA 070</t>
+  </si>
+  <si>
+    <t>LEGENDA 071</t>
+  </si>
+  <si>
+    <t>LEGENDA 072</t>
+  </si>
+  <si>
+    <t>LEGENDA 073</t>
+  </si>
+  <si>
+    <t>LEGENDA 074</t>
+  </si>
+  <si>
+    <t>LEGENDA 075</t>
+  </si>
+  <si>
+    <t>LEGENDA 076</t>
+  </si>
+  <si>
+    <t>LEGENDA 077</t>
+  </si>
+  <si>
+    <t>LEGENDA 078</t>
+  </si>
+  <si>
+    <t>LEGENDA 079</t>
+  </si>
+  <si>
+    <t>LEGENDA 080</t>
+  </si>
+  <si>
+    <t>LEGENDA 081</t>
+  </si>
+  <si>
+    <t>LEGENDA 082</t>
+  </si>
+  <si>
+    <t>LEGENDA 083</t>
+  </si>
+  <si>
+    <t>LEGENDA 084</t>
+  </si>
+  <si>
+    <t>LEGENDA 085</t>
+  </si>
+  <si>
+    <t>LEGENDA 086</t>
+  </si>
+  <si>
+    <t>LEGENDA 087</t>
+  </si>
+  <si>
+    <t>LEGENDA 088</t>
+  </si>
+  <si>
+    <t>LEGENDA 089</t>
+  </si>
+  <si>
+    <t>LEGENDA 090</t>
+  </si>
+  <si>
+    <t>LEGENDA 091</t>
+  </si>
+  <si>
+    <t>LEGENDA 092</t>
+  </si>
+  <si>
+    <t>LEGENDA 093</t>
+  </si>
+  <si>
+    <t>LEGENDA 094</t>
+  </si>
+  <si>
+    <t>LEGENDA 095</t>
+  </si>
+  <si>
+    <t>LEGENDA 096</t>
+  </si>
+  <si>
+    <t>LEGENDA 097</t>
+  </si>
+  <si>
+    <t>LEGENDA 098</t>
+  </si>
+  <si>
+    <t>LEGENDA 099</t>
+  </si>
+  <si>
+    <t>LEGENDA 100</t>
+  </si>
+  <si>
+    <t>LEGENDA 101</t>
+  </si>
+  <si>
+    <t>LEGENDA 102</t>
+  </si>
+  <si>
+    <t>LEGENDA 103</t>
+  </si>
+  <si>
+    <t>LEGENDA 104</t>
+  </si>
+  <si>
+    <t>LEGENDA 105</t>
+  </si>
+  <si>
+    <t>LEGENDA 106</t>
+  </si>
+  <si>
+    <t>LEGENDA 107</t>
+  </si>
+  <si>
+    <t>LEGENDA 108</t>
+  </si>
+  <si>
+    <t>LEGENDA 109</t>
+  </si>
+  <si>
+    <t>LEGENDA 110</t>
+  </si>
+  <si>
+    <t>LEGENDA 111</t>
+  </si>
+  <si>
+    <t>LEGENDA 112</t>
+  </si>
+  <si>
+    <t>LEGENDA 113</t>
+  </si>
+  <si>
+    <t>LEGENDA 114</t>
+  </si>
+  <si>
+    <t>LEGENDA 115</t>
+  </si>
+  <si>
+    <t>LEGENDA 116</t>
+  </si>
+  <si>
+    <t>LEGENDA 117</t>
+  </si>
+  <si>
+    <t>LEGENDA 118</t>
+  </si>
+  <si>
+    <t>LEGENDA 119</t>
+  </si>
+  <si>
+    <t>LEGENDA 120</t>
+  </si>
+  <si>
+    <t>LEGENDA 121</t>
+  </si>
+  <si>
+    <t>LEGENDA 122</t>
+  </si>
+  <si>
+    <t>LEGENDA 123</t>
+  </si>
+  <si>
+    <t>LEGENDA 124</t>
+  </si>
+  <si>
+    <t>LEGENDA 125</t>
+  </si>
+  <si>
+    <t>LEGENDA 126</t>
+  </si>
+  <si>
+    <t>LEGENDA 127</t>
+  </si>
+  <si>
+    <t>LEGENDA 128</t>
+  </si>
+  <si>
+    <t>LEGENDA 129</t>
+  </si>
+  <si>
+    <t>LEGENDA 130</t>
+  </si>
+  <si>
+    <t>LEGENDA 131</t>
+  </si>
+  <si>
+    <t>LEGENDA 132</t>
+  </si>
+  <si>
+    <t>LEGENDA 133</t>
+  </si>
+  <si>
+    <t>LEGENDA 134</t>
+  </si>
+  <si>
+    <t>LEGENDA 135</t>
+  </si>
+  <si>
+    <t>LEGENDA 136</t>
+  </si>
+  <si>
+    <t>LEGENDA 137</t>
+  </si>
+  <si>
+    <t>LEGENDA 138</t>
+  </si>
+  <si>
+    <t>LEGENDA 139</t>
+  </si>
+  <si>
+    <t>LEGENDA 140</t>
+  </si>
+  <si>
+    <t>LEGENDA 141</t>
+  </si>
+  <si>
+    <t>LEGENDA 142</t>
+  </si>
+  <si>
+    <t>LEGENDA 143</t>
+  </si>
+  <si>
+    <t>LEGENDA 144</t>
+  </si>
+  <si>
+    <t>LEGENDA 145</t>
+  </si>
+  <si>
+    <t>LEGENDA 146</t>
+  </si>
+  <si>
+    <t>LEGENDA 147</t>
+  </si>
+  <si>
+    <t>LEGENDA 148</t>
+  </si>
+  <si>
+    <t>LEGENDA 149</t>
+  </si>
+  <si>
+    <t>LEGENDA 150</t>
+  </si>
+  <si>
+    <t>LEGENDA 151</t>
+  </si>
+  <si>
+    <t>LEGENDA 152</t>
+  </si>
+  <si>
+    <t>LEGENDA 153</t>
+  </si>
+  <si>
+    <t>LEGENDA 154</t>
+  </si>
+  <si>
+    <t>LEGENDA 155</t>
+  </si>
+  <si>
+    <t>LEGENDA 156</t>
+  </si>
+  <si>
+    <t>LEGENDA 157</t>
+  </si>
+  <si>
+    <t>LEGENDA 158</t>
+  </si>
+  <si>
+    <t>LEGENDA 159</t>
+  </si>
+  <si>
+    <t>LEGENDA 160</t>
+  </si>
+  <si>
+    <t>LEGENDA 161</t>
+  </si>
+  <si>
+    <t>LEGENDA 162</t>
+  </si>
+  <si>
+    <t>LEGENDA 163</t>
+  </si>
+  <si>
+    <t>LEGENDA 164</t>
+  </si>
+  <si>
+    <t>LEGENDA 165</t>
+  </si>
+  <si>
+    <t>LEGENDA 166</t>
+  </si>
+  <si>
+    <t>LEGENDA 167</t>
+  </si>
+  <si>
+    <t>LEGENDA 168</t>
+  </si>
+  <si>
+    <t>LEGENDA 169</t>
+  </si>
+  <si>
+    <t>LEGENDA 170</t>
+  </si>
+  <si>
+    <t>LEGENDA 171</t>
+  </si>
+  <si>
+    <t>LEGENDA 172</t>
+  </si>
+  <si>
+    <t>LEGENDA 173</t>
+  </si>
+  <si>
+    <t>LEGENDA 174</t>
+  </si>
+  <si>
+    <t>LEGENDA 175</t>
+  </si>
+  <si>
+    <t>LEGENDA 176</t>
+  </si>
+  <si>
+    <t>LEGENDA 177</t>
+  </si>
+  <si>
+    <t>LEGENDA 178</t>
+  </si>
+  <si>
+    <t>LEGENDA 179</t>
+  </si>
+  <si>
+    <t>LEGENDA 180</t>
+  </si>
+  <si>
+    <t>LEGENDA 181</t>
+  </si>
+  <si>
+    <t>LEGENDA 182</t>
+  </si>
+  <si>
+    <t>LEGENDA 183</t>
+  </si>
+  <si>
+    <t>LEGENDA 184</t>
+  </si>
+  <si>
+    <t>LEGENDA 185</t>
+  </si>
+  <si>
+    <t>LEGENDA 186</t>
+  </si>
+  <si>
+    <t>LEGENDA 187</t>
+  </si>
+  <si>
+    <t>LEGENDA 188</t>
+  </si>
+  <si>
+    <t>LEGENDA 189</t>
+  </si>
+  <si>
+    <t>LEGENDA 190</t>
+  </si>
+  <si>
+    <t>LEGENDA 191</t>
+  </si>
+  <si>
+    <t>LEGENDA 192</t>
+  </si>
+  <si>
+    <t>LEGENDA 193</t>
+  </si>
+  <si>
+    <t>LEGENDA 194</t>
   </si>
 </sst>
 </file>
@@ -399,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +1661,2722 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>48</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57">
+        <v>51</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>53</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>59</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>61</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71">
+        <v>65</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>66</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77">
+        <v>71</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>72</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <v>74</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>82</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89">
+        <v>83</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>84</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92">
+        <v>86</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93">
+        <v>87</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97">
+        <v>91</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98">
+        <v>92</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103">
+        <v>97</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104">
+        <v>98</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105">
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114">
+        <v>108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116">
+        <v>110</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117">
+        <v>111</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118">
+        <v>112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119">
+        <v>113</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120">
+        <v>114</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121">
+        <v>115</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122">
+        <v>116</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123">
+        <v>117</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124">
+        <v>118</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125">
+        <v>119</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126">
+        <v>120</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127">
+        <v>121</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128">
+        <v>122</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130">
+        <v>124</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131">
+        <v>125</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132">
+        <v>126</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133">
+        <v>127</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134">
+        <v>128</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136">
+        <v>130</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137">
+        <v>131</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138">
+        <v>132</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139">
+        <v>133</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140">
+        <v>134</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141">
+        <v>135</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142">
+        <v>136</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143">
+        <v>137</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144">
+        <v>138</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145">
+        <v>139</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146">
+        <v>140</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147">
+        <v>141</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148">
+        <v>142</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149">
+        <v>143</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150">
+        <v>144</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151">
+        <v>145</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152">
+        <v>146</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153">
+        <v>147</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154">
+        <v>148</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155">
+        <v>149</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156">
+        <v>150</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157">
+        <v>151</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158">
+        <v>152</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159">
+        <v>153</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160">
+        <v>154</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161">
+        <v>155</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162">
+        <v>156</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163">
+        <v>157</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+      <c r="D163" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164">
+        <v>158</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165">
+        <v>159</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166">
+        <v>160</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167">
+        <v>161</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168">
+        <v>162</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169">
+        <v>163</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170">
+        <v>164</v>
+      </c>
+      <c r="C170" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171">
+        <v>165</v>
+      </c>
+      <c r="C171" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172">
+        <v>166</v>
+      </c>
+      <c r="C172" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173">
+        <v>167</v>
+      </c>
+      <c r="C173" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174">
+        <v>168</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175">
+        <v>169</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176">
+        <v>170</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177">
+        <v>171</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178">
+        <v>172</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179">
+        <v>173</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180">
+        <v>174</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181">
+        <v>175</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182">
+        <v>176</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183">
+        <v>177</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184">
+        <v>178</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185">
+        <v>179</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186">
+        <v>180</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187">
+        <v>181</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188">
+        <v>182</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189">
+        <v>183</v>
+      </c>
+      <c r="C189" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190">
+        <v>184</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191">
+        <v>185</v>
+      </c>
+      <c r="C191" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192">
+        <v>186</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193">
+        <v>187</v>
+      </c>
+      <c r="C193" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194">
+        <v>188</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195">
+        <v>189</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196">
+        <v>190</v>
+      </c>
+      <c r="C196" t="s">
+        <v>15</v>
+      </c>
+      <c r="D196" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197">
+        <v>191</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198">
+        <v>192</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199">
+        <v>193</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200">
+        <v>194</v>
+      </c>
+      <c r="C200" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" t="s">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
